--- a/medicine/Psychotrope/Vinitaly/Vinitaly.xlsx
+++ b/medicine/Psychotrope/Vinitaly/Vinitaly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Vinitaly est le Salon international du vin et des spiritueux qui se déroule chaque année à Vérone depuis 1967. Vinitaly s’étend sur plus de 95 000 m2, accueille plus de 4 000 exposants par an et enregistre environ 150 000 visiteurs par édition, trois fois supérieurs à ceux des deux autres salons européens majeurs, Vinexpo à Bordeaux et ProWein à Düsseldorf. Le salon accueille des producteurs, des importateurs, des distributeurs, des restaurateurs, des techniciens, des journalistes et des leaders d’opinion en provenance du monde entier[2].
+Vinitaly est le Salon international du vin et des spiritueux qui se déroule chaque année à Vérone depuis 1967. Vinitaly s’étend sur plus de 95 000 m2, accueille plus de 4 000 exposants par an et enregistre environ 150 000 visiteurs par édition, trois fois supérieurs à ceux des deux autres salons européens majeurs, Vinexpo à Bordeaux et ProWein à Düsseldorf. Le salon accueille des producteurs, des importateurs, des distributeurs, des restaurateurs, des techniciens, des journalistes et des leaders d’opinion en provenance du monde entier.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année, le salon organise plus de 50 dégustations à thème de vins italiens et étrangers. Le programme de conférences aborde les principaux thèmes liés à la demande et à l’offre du marché du vin. Les analyses sont conduites par l’observatoire de Vinitaly Études &amp; Recherches.
 En plus des surfaces d’exposition destinées aux producteurs de vin, le salon comprend des ateliers, un club pour les acheteurs, ainsi que des espaces spécialement consacrés à la promotion du Made in Italy et destinés à faire connaître les exploitations émergentes du marché.
@@ -548,7 +562,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1967: les 22 et 23 septembre, le palais de la Gran Guardia accueille les Giornate del Vino Italiano (Journées du Vin italien). C’est l’acte de naissance officiel de Vinitaly.
 1969: à la troisième édition des Journées du Vin italien, en complément d’une série de conférences, 130 établissements vinicoles exposent leurs produits.
@@ -566,7 +582,7 @@
 2006: Vinitaly atteint sa pleine maturité — ses quarante ans. Le salon comprend deux nouveaux pavillons (10 et 11). Il élargit sa présence sur les marchés étrangers : Vinitaly Japan, en novembre à Tokyo, première édition labellisée Vinitaly en Inde (Mumbai et New Delhi), troisième édition en Russie (une première à Saint-Pétersbourg et une bien établie à Moscou), Vinitaly US Tour (Chicago, Los Angeles et Las Vegas) et Vinitaly China (Shanghai). Le Concours international de packaging s’ouvre aux liqueurs et aux spiritueux à base de fruits autres que le raisin. En 2005, ce concours avait accueilli les spiritueux à base de produits vitivinicoles.
 2009: Après l’expérience positive de 2008 d’Agrifood Club, la foire agroalimentaire de qualité, on décide d’étendre définitivement l’offre de produits aux opérateurs étrangers intéressés non seulement par le vin avec Vinitaly et par l’huile d’olive vierge extra avec Sol, mais par tout ce qui est le Made in Italy agroalimentaire. Les exposants d’Enolitech bénéficient gratuitement d’un service anti-contrefaçon visant à protéger la propriété industrielle et intellectuelle des produits exposés, face aux opérateurs du secteur qui exposent des contrefaçons ou exercent une «concurrence déloyale».
 2010: services de pointe au bénéfice des entreprises, marketing direct via le Web destiné à augmenter le nombre d’opérateurs étrangers spécialisés et à fidéliser ceux qui connaissent déjà Vinitaly : c’est le fil conducteur de la 44e édition de Vinitaly, qui reçoit pour la première fois de son histoire la visite officielle du président de la République italienne, Giorgio Napolitano. 
-Vinitaly World Tour change de format et devient Vinitaly in the World, par suite de l’accord entre le ministère des Politiques agricoles et Veronafiere[3].
+Vinitaly World Tour change de format et devient Vinitaly in the World, par suite de l’accord entre le ministère des Politiques agricoles et Veronafiere.
 2011: Vinitaly au premier plan des célébrations du 150e anniversaire de l’Unité d’Italie, avec « La bouteille de l’Unité d’Italie ». Ce projet, lancé par Veronafiere, est le seul du secteur qui a obtenu le logo officiel des célébrations. Un assemblage de 20 vins rouges et de 20 blancs monocépages, représentatifs d’une variété de chacune des 20 régions italiennes, a permis de créer deux vins qui ont été offerts au président de la République, M. Napolitano, puis aux plus hautes autorités internationales.
 </t>
         </is>
